--- a/INTLINE/data/576/DOS/M015731 - Gross Domestic Product At Current Prices By Industry Annual.xlsx
+++ b/INTLINE/data/576/DOS/M015731 - Gross Domestic Product At Current Prices By Industry Annual.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="123">
   <si>
     <t/>
   </si>
@@ -366,10 +366,19 @@
     <t>Values are shown in Singapore dollars (unless otherwise specified)</t>
   </si>
   <si>
+    <t>Related Information:</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product Dashboard</t>
+  </si>
+  <si>
+    <t>Infographic on Singapore Economy</t>
+  </si>
+  <si>
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
@@ -777,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK66"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="63" width="24" customWidth="1"/>
@@ -5887,8 +5896,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5902,9 +5911,26 @@
         <v>119</v>
       </c>
     </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="A61" r:id="rId2"/>
+    <hyperlink ref="A62" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/INTLINE/data/576/DOS/M015731 - Gross Domestic Product At Current Prices By Industry Annual.xlsx
+++ b/INTLINE/data/576/DOS/M015731 - Gross Domestic Product At Current Prices By Industry Annual.xlsx
@@ -378,7 +378,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
